--- a/cex_ablation.xlsx
+++ b/cex_ablation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blliu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\SynHbc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2816A9-C8E4-4869-89D0-0824BB483F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932B8215-86D9-4753-BEBA-A271088B1273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25490" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{320906E2-4B52-42D1-BC95-DB40D5F8818A}"/>
   </bookViews>
@@ -483,22 +483,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC3536C-7053-40B6-8D39-E38BCD4A5BE0}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.58203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="16.58203125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="16" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="12.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.75" style="1" customWidth="1"/>
-    <col min="11" max="12" width="9" style="1"/>
+    <col min="1" max="3" width="5.58203125" style="1" customWidth="1"/>
+    <col min="4" max="7" width="7.58203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.58203125" style="1" customWidth="1"/>
+    <col min="9" max="12" width="7.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -557,7 +553,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -596,7 +592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -636,7 +632,7 @@
         <v>44.216900000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,7 +672,7 @@
         <v>14.988850000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -716,7 +712,7 @@
         <v>2.1405700000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -755,7 +751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -795,7 +791,7 @@
         <v>61.744099999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -835,7 +831,7 @@
         <v>54.8003</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -874,7 +870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -913,7 +909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -952,12 +948,54 @@
         <v>3</v>
       </c>
     </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A20:A24"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
